--- a/stats2/tables/table2_1.xlsx
+++ b/stats2/tables/table2_1.xlsx
@@ -455,7 +455,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>0.131578947368421</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1105263157894737</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1105263157894737</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
